--- a/ID.xlsx
+++ b/ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206A26E-D022-48F5-B0E8-A675D0659EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D089E340-537B-4AA1-8013-AE3EEC942552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53310" yWindow="0" windowWidth="4395" windowHeight="15585" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
+    <workbookView xWindow="53445" yWindow="0" windowWidth="4260" windowHeight="15585" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>棘(右)</t>
     <rPh sb="0" eb="1">
@@ -247,89 +247,99 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>草通常＋左斜め</t>
-    <rPh sb="0" eb="1">
-      <t>クサ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒダリナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>草通常＋右斜め</t>
-    <rPh sb="0" eb="1">
-      <t>クサ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
+    <t>ベルトコンベア(左)</t>
+    <rPh sb="8" eb="9">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルトコンベア(右)</t>
+    <rPh sb="8" eb="9">
       <t>ミギ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>土通常＋左斜め</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒダリナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>土通常＋右斜め</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲上</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲下</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲左</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲右</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
       <t>ミギ</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石通常＋左斜め</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒダリナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石通常＋右斜め</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ナナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲左上</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲左下</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒダリシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲右上</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲右下</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギシタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -698,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEEFDC-D0E6-41CF-AA9A-534BB0986EB9}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A22"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -768,169 +778,201 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
+        <v>224</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>225</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>226</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>227</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>300</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/ID.xlsx
+++ b/ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D089E340-537B-4AA1-8013-AE3EEC942552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E5656E-0B4F-469C-B4C8-046CA122EBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53445" yWindow="0" windowWidth="4260" windowHeight="15585" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
+    <workbookView xWindow="53550" yWindow="0" windowWidth="4155" windowHeight="15585" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>

--- a/ID.xlsx
+++ b/ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E5656E-0B4F-469C-B4C8-046CA122EBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725E4C52-A9C9-406D-A058-1DB516BBA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53550" yWindow="0" windowWidth="4155" windowHeight="15585" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
+    <workbookView xWindow="24735" yWindow="0" windowWidth="4170" windowHeight="15585" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>棘(右)</t>
     <rPh sb="0" eb="1">
@@ -341,6 +341,10 @@
     <rPh sb="2" eb="4">
       <t>ミギシタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -708,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEEFDC-D0E6-41CF-AA9A-534BB0986EB9}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -970,9 +974,17 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
+        <v>230</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
         <v>300</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/ID.xlsx
+++ b/ID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokiy\OneDrive\ドキュメント\GFF2024_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725E4C52-A9C9-406D-A058-1DB516BBA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B05692-8C42-4E3E-A13D-05E04E4428B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24735" yWindow="0" windowWidth="4170" windowHeight="15585" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="19428" windowHeight="12240" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -714,17 +714,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEEFDC-D0E6-41CF-AA9A-534BB0986EB9}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -748,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -756,7 +756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>100</v>
       </c>
@@ -764,7 +764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>101</v>
       </c>
@@ -772,7 +772,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>102</v>
       </c>
@@ -780,7 +780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>105</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>110</v>
       </c>
@@ -796,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>111</v>
       </c>
@@ -804,7 +804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>112</v>
       </c>
@@ -812,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>115</v>
       </c>
@@ -820,7 +820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>120</v>
       </c>
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>121</v>
       </c>
@@ -836,7 +836,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>122</v>
       </c>
@@ -844,7 +844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>125</v>
       </c>
@@ -852,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>200</v>
       </c>
@@ -860,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>201</v>
       </c>
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>202</v>
       </c>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>203</v>
       </c>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>204</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>210</v>
       </c>
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>211</v>
       </c>
@@ -908,7 +908,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>220</v>
       </c>
@@ -916,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>221</v>
       </c>
@@ -924,7 +924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>222</v>
       </c>
@@ -932,7 +932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>223</v>
       </c>
@@ -940,7 +940,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>224</v>
       </c>
@@ -948,7 +948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>225</v>
       </c>
@@ -956,7 +956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>226</v>
       </c>
@@ -964,7 +964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>227</v>
       </c>
@@ -972,7 +972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>230</v>
       </c>
@@ -980,7 +980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>300</v>
       </c>

--- a/ID.xlsx
+++ b/ID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokiy\OneDrive\ドキュメント\GFF2024_Bteam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B05692-8C42-4E3E-A13D-05E04E4428B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4647B9-45E5-448A-81D3-4082C549DD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19428" windowHeight="12240" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
+    <workbookView xWindow="19500" yWindow="0" windowWidth="3636" windowHeight="12336" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -314,37 +314,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>大砲右上</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大砲右下</t>
+    <rPh sb="0" eb="2">
+      <t>タイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>大砲左下</t>
     <rPh sb="0" eb="2">
       <t>タイホウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大砲右上</t>
-    <rPh sb="0" eb="2">
-      <t>タイホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミギウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大砲右下</t>
-    <rPh sb="0" eb="2">
-      <t>タイホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミギシタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リング</t>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -715,7 +718,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -953,7 +956,7 @@
         <v>225</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -961,7 +964,7 @@
         <v>226</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
@@ -969,7 +972,7 @@
         <v>227</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
@@ -977,7 +980,7 @@
         <v>230</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">

--- a/ID.xlsx
+++ b/ID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tokiy\OneDrive\ドキュメント\GFF2024_Bteam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2023後期Bチーム\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B05692-8C42-4E3E-A13D-05E04E4428B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C73EC9-B083-47C2-86D3-D2F859997A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19428" windowHeight="12240" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
+    <workbookView xWindow="53010" yWindow="0" windowWidth="4695" windowHeight="15585" xr2:uid="{7B196C4C-6A4C-4836-ABA3-1B6B5563DDEA}"/>
   </bookViews>
   <sheets>
     <sheet name="ID" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>棘(右)</t>
     <rPh sb="0" eb="1">
@@ -178,75 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>草左斜め</t>
-    <rPh sb="0" eb="1">
-      <t>クサ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ヒダリナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>草右斜め</t>
-    <rPh sb="0" eb="1">
-      <t>クサ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>土左斜め</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>土右斜め</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ミギナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石左斜め</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヒダリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>石右斜め</t>
-    <rPh sb="0" eb="1">
-      <t>イシ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ミギナナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ベルトコンベア(左)</t>
     <rPh sb="8" eb="9">
       <t>ヒダリ</t>
@@ -345,6 +276,192 @@
   </si>
   <si>
     <t>リング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土左上斜め</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土右上斜め</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>土</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>左下斜め</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土右下斜め</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石左上斜め</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石右上斜め</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石左下斜め</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草左上斜め</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草右上斜め</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草左下斜め</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草右下斜め</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石右下斜め</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -352,7 +469,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +484,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,11 +515,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -712,19 +839,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2EEEFDC-D0E6-41CF-AA9A-534BB0986EB9}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -732,7 +859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -740,7 +867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -748,7 +875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -756,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>100</v>
       </c>
@@ -764,227 +891,275 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>121</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>122</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>123</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>124</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>125</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>200</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>202</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>204</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>210</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>211</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>105</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>110</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>111</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>220</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>112</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>221</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>115</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>120</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>121</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>222</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>122</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>223</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>125</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>200</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>201</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>202</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>203</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>204</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>210</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>224</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>211</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>225</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>220</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>226</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>221</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>227</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>222</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>230</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>223</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>224</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>225</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>226</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>227</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>230</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
         <v>300</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
     </row>
